--- a/Classes/DataObject.xlsx
+++ b/Classes/DataObject.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Registry Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13788"/>
   </bookViews>
   <sheets>
     <sheet name="DataObject" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t>data type registry data object for representing an attribute, which represents the quantifier for a property in the context of a data object</t>
   </si>
@@ -1217,6 +1217,57 @@
   </si>
   <si>
     <t>def/concept/data-object</t>
+  </si>
+  <si>
+    <t>WSP2321Data</t>
+  </si>
+  <si>
+    <t>A hydraulic properties table extracted from USGS Water Supply paper 2321</t>
+  </si>
+  <si>
+    <t>testing Digital crust Data integraton</t>
+  </si>
+  <si>
+    <t>SM Richard transcribed data from WSP2321 to an excel spreadsheet; the columns in that table are defined in this data type</t>
+  </si>
+  <si>
+    <t>CPHydroObservationData</t>
+  </si>
+  <si>
+    <t>tabular data type defined to compile hydraulic properties for rocks in Colorado Plateau, for Digital Crust project</t>
+  </si>
+  <si>
+    <t>data object defined in data type registry model</t>
+  </si>
+  <si>
+    <t>data object defined in data type registry model, based on skos:Concept.</t>
+  </si>
+  <si>
+    <t>WeigelObservation</t>
+  </si>
+  <si>
+    <t>compilation of data on hydraulic conductivity properties of mesozoic formations, from USGS WRI 86-470, Weigel, 1987</t>
+  </si>
+  <si>
+    <t>Measured Value</t>
+  </si>
+  <si>
+    <t>def/object-class/measured-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object representing a measurement result; may be expressed  single value,  an aggregate (mean, median, mode) value with some associated statisitics, categorical, count, time, or a range on any one of these. </t>
+  </si>
+  <si>
+    <t>SMR Base on OGC SWE (Sensor web enablment) SWE common abstract data component.</t>
+  </si>
+  <si>
+    <t>Quantity with units</t>
+  </si>
+  <si>
+    <t>a simple representation of a measured value that includes a single representative value and the unit of measure as a tuple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR to account for value and uom in separtate comlumns/fields. </t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1348,6 +1399,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1632,29 +1686,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="U15" sqref="U15"/>
       <selection pane="topRight" activeCell="U15" sqref="U15"/>
       <selection pane="bottomLeft" activeCell="U15" sqref="U15"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>110</v>
       </c>
@@ -1680,7 +1734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
         <f t="shared" ref="A2:A45" si="0">"class/data-object/" &amp; LOWER(SUBSTITUTE(C2," ","-"))</f>
         <v>class/data-object/agent-description</v>
@@ -1701,7 +1755,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/borehole-lithology-intercept-occurrence</v>
@@ -1726,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/borehole-lithology-interval-occurrence</v>
@@ -1751,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/borehole-temperature-result</v>
@@ -1776,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/contact-information-description</v>
@@ -1795,7 +1849,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/contour-line-instance</v>
@@ -1820,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/coordinate-location</v>
@@ -1843,7 +1897,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/direct-use-facility-occurrence</v>
@@ -1868,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/fluid-flux-injection-and-disposal-result</v>
@@ -1893,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geologic-contact-occurrence</v>
@@ -1918,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geologic-fault-occurrence</v>
@@ -1943,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geologic-unit-outcrop-occurrence</v>
@@ -1968,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geologic-unit-portrayal-description</v>
@@ -1987,9 +2041,9 @@
         <v>73</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geothermal-area-occurrence</v>
@@ -2014,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geothermal-power-plant-occurrence</v>
@@ -2041,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/geothermal-reservoir</v>
@@ -2066,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/gravity-result</v>
@@ -2091,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/heat-flow-result</v>
@@ -2116,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/heat-pump-facility-occurrence</v>
@@ -2141,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/history-sequence</v>
@@ -2158,9 +2212,9 @@
         <v>57</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/hydraulic-properties-result</v>
@@ -2185,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/metadata-instance</v>
@@ -2210,7 +2264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="138" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/mineral-recovery-brines-experimental-data-instance</v>
@@ -2235,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="138" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/mineral-recovery-brines-process-and-economics-instance</v>
@@ -2260,7 +2314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/physical-sample-occurrence</v>
@@ -2285,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/powell-and-cumming-geothermometry-result</v>
@@ -2310,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/power-plant-production-result</v>
@@ -2335,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/radiogenic-heat-production-result</v>
@@ -2360,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/reference</v>
@@ -2381,9 +2435,9 @@
         <v>37</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/rock-chemistry-result</v>
@@ -2408,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/seismic-event-hypocenter-result</v>
@@ -2433,7 +2487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/term</v>
@@ -2452,9 +2506,9 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/thermal-conductivity-result</v>
@@ -2479,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/thermal-spring-occurrence</v>
@@ -2504,7 +2558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/us-cadastral-location</v>
@@ -2527,7 +2581,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/volcanic-vent-occurrence</v>
@@ -2552,7 +2606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/well-fluid-production-result</v>
@@ -2577,7 +2631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/well-header-occurrence</v>
@@ -2602,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/well-log-result</v>
@@ -2627,7 +2681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/well-test-result</v>
@@ -2652,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/concept</v>
@@ -2669,9 +2723,11 @@
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H42" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/data-object</v>
@@ -2688,9 +2744,11 @@
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H43" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/value-domain</v>
@@ -2707,9 +2765,11 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="H44" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/data-object/attribute</v>
@@ -2726,7 +2786,123 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
+        <f>"class/data-object/" &amp; LOWER(SUBSTITUTE(C46," ","-"))</f>
+        <v>class/data-object/wsp2321data</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
+        <f>"class/data-object/" &amp; LOWER(SUBSTITUTE(C47," ","-"))</f>
+        <v>class/data-object/cphydroobservationdata</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f>"class/data-object/" &amp; LOWER(SUBSTITUTE(C48," ","-"))</f>
+        <v>class/data-object/weigelobservation</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
+        <f>"class/data-object/" &amp; LOWER(SUBSTITUTE(C49," ","-"))</f>
+        <v>class/data-object/measured-value</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="str">
+        <f>"class/data-object/" &amp; LOWER(SUBSTITUTE(C50," ","-"))</f>
+        <v>class/data-object/quantity-with-units</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
